--- a/tabular/extension/primate/hiv-reference-data.xlsx
+++ b/tabular/extension/primate/hiv-reference-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/general/HIV-GLUE/tabular/core/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/retrovirus/Lentivirus-GLUE/tabular/extension/primate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C02855F-BA05-5E48-8716-0EC72D13A5CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5607E6F2-593D-0A4E-B2A7-081CEE6DFC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="28060" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="500" windowWidth="28060" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main refs" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="120">
   <si>
     <t>Accession</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Country</t>
   </si>
   <si>
-    <t>Host_common_name</t>
-  </si>
-  <si>
     <t>Host</t>
   </si>
   <si>
@@ -368,6 +365,30 @@
   </si>
   <si>
     <t>SE365</t>
+  </si>
+  <si>
+    <t>sequenceID</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>subtype</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>host_common_name</t>
   </si>
 </sst>
 </file>
@@ -852,7 +873,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="A1:J20"/>
+      <selection activeCell="H6" sqref="A1:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -866,127 +887,127 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="5">
         <v>2012</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="F3" s="5">
         <v>1983</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J3" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F4" s="5">
         <v>1981</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" s="5">
         <v>23170185</v>
@@ -994,61 +1015,61 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F5" s="5">
         <v>1990</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F6" s="5">
         <v>2006</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6" s="5">
         <v>17451347</v>
@@ -1056,31 +1077,31 @@
     </row>
     <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="F7" s="5">
         <v>1997</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7" s="5">
         <v>1375062</v>
@@ -1088,31 +1109,31 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F8" s="5">
         <v>2005</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J8" s="5">
         <v>24324545</v>
@@ -1120,31 +1141,31 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F9" s="5">
         <v>1999</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J9" s="5">
         <v>15585101</v>
@@ -1152,29 +1173,29 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="5">
         <v>2003</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" s="5">
         <v>26699702</v>
@@ -1182,31 +1203,31 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="F11" s="5">
         <v>2008</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J11" s="5">
         <v>26699702</v>
@@ -1214,31 +1235,31 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F12" s="5">
         <v>2004</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J12" s="5">
         <v>26699702</v>
@@ -1246,29 +1267,29 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F13" s="5">
         <v>1995</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J13" s="5">
         <v>9734396</v>
@@ -1276,29 +1297,29 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F14" s="5">
         <v>2005</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J14" s="5">
         <v>26699702</v>
@@ -1306,57 +1327,57 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F15" s="5">
         <v>2009</v>
       </c>
       <c r="G15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="J15" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J16" s="5">
         <v>22505456</v>
@@ -1364,27 +1385,27 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J17" s="5">
         <v>22505456</v>
@@ -1392,27 +1413,27 @@
     </row>
     <row r="18" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J18" s="5">
         <v>17494082</v>
@@ -1420,29 +1441,29 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F19" s="5">
         <v>2012</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J19" s="5">
         <v>25733890</v>
@@ -1450,29 +1471,29 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F20" s="5">
         <v>2013</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J20" s="5">
         <v>25733890</v>
@@ -1528,40 +1549,40 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="5">
         <v>2005</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" s="5">
         <v>25900654</v>
@@ -1569,29 +1590,29 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="5">
         <v>2004</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J3" s="5">
         <v>19073717</v>
@@ -1599,29 +1620,29 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J4" s="5">
         <v>2188136</v>
@@ -1629,29 +1650,29 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J5" s="5">
         <v>9989410</v>
@@ -1659,29 +1680,29 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="5">
         <v>2006</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J6" s="5">
         <v>21775446</v>
@@ -1689,31 +1710,31 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="F8" s="5">
         <v>1994</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J8" s="5">
         <v>12487816</v>
@@ -1721,31 +1742,31 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="5">
         <v>1992</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J9" s="5">
         <v>8891112</v>
@@ -1753,29 +1774,29 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="5">
         <v>2004</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" s="5">
         <v>16438650</v>
@@ -1783,59 +1804,59 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="5">
         <v>1991</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J12" s="5">
         <v>8107219</v>
@@ -1843,29 +1864,29 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" s="5">
         <v>2006</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J13" s="5">
         <v>21084486</v>
